--- a/まとめたデータ/129_1000_5k_100k_5s_fsr.xlsx
+++ b/まとめたデータ/129_1000_5k_100k_5s_fsr.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NeuMi\OneDrive\ドキュメント\work2019\excel\sotuken\まとめたデータ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F72D57B2-554F-45EB-A02A-19BC163FE023}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB85B2A7-6113-4983-A646-096D7BB5AE69}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="129_1000_5k_100k_5s_fsr" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -685,17 +695,30 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14435870516185476"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.81164129483814518"/>
+          <c:h val="0.72255431612715082"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>送電側</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1302,6 +1325,625 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B93F-4075-8C10-0E87364206BB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>受電側</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'129_1000_5k_100k_5s_fsr'!$A$1:$A$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'129_1000_5k_100k_5s_fsr'!$C$1:$C$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.39</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.48</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.28999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.26</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.18</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.16</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.14000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.27</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.49</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.98</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C500-4E73-9BE9-14C3816362C1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1568,6 +2210,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.80277777777777792"/>
+          <c:y val="0.59317074948964721"/>
+          <c:w val="0.15833333333333333"/>
+          <c:h val="0.15625109361329836"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1628,666 +2311,6 @@
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.15269203849518811"/>
-          <c:y val="5.5555555555555552E-2"/>
-          <c:w val="0.80608573928258964"/>
-          <c:h val="0.72255431612715082"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'129_1000_5k_100k_5s_fsr'!$C$1:$C$96</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="96"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.06</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.33</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.04</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.09</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.71</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.03</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.22</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.34</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.52</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.39</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.57999999999999996</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.72</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.48</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.28999999999999998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.26</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.32</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.41</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.23</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.08</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.12</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.18</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.16</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.14000000000000001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.19</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.27</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.42</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.49</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.76</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.79</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.82</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.83</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.86</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.87</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.88</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.91</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.93</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.94</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.96</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.98</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.98</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B1F4-424D-8699-550C53FE9507}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="521910336"/>
-        <c:axId val="521910664"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="521910336"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>周波数</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>(kHz)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:majorTickMark val="in"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:alpha val="99000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="521910664"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="521910664"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="ja-JP" altLang="en-US">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>電力</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="ja-JP">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>(W)</a:t>
-                </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="ja-JP"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="521910336"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2298,7 +2321,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:schemeClr val="tx2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3168,6 +3191,1596 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13805314960629922"/>
+          <c:y val="5.0925925925925923E-2"/>
+          <c:w val="0.81639129483814532"/>
+          <c:h val="0.72255431612715082"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1.5秒</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'129_1000_5k_100k_5s_fsr'!$A$1:$A$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'129_1000_5k_100k_5s_fsr'!$F$1:$F$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8409090905000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.26470588235999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.83720930220000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11.967032965800001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.44444444439999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5576923079</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.5632183904000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32.5225806431</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>17.582417584000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.660194175499999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.83333333350000016</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.39130434780000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.4883720927999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.7647058815999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.3777777768000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.626865672200001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>18.777777777200001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.102189779200001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21.024999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28.960893856800002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>28.736318405199999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>31.766917292500004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18.885245903999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>10.745614036499999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.0865384601999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10.745614036499999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>18.846153847499998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.2602739735999986</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>10.745614036499999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.24</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18.0752688191</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>7.5571428578000015</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.2564102564999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0416666665000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.6842105264</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>4.1702127656000005</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.5999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.1304347824000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.6666666663999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.1666666669000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>4.9090909085999996</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.461538462</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.4383561650000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.1604938271999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.6486486488000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.5568181824999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.5392156861999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.9428571417000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>9.7999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>14.3414634132</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>16.445205481600002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>19.642857140500002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>23.909638554899999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>26.775956283999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>28.846153845</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>29.171717168800001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>31.853403145200001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>32.336787567100004</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>29.493087559999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>33.452736317999992</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>30.082969428400002</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>32.219178079199999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>33.604651162000003</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>32.581497801600001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>34.248868780799995</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>32.6751054872</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>32.266666669599999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>33.196721310000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>36.161572055700006</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>36.493670886900006</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>37.126050420799999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42.370892021499998</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>39.217021276799997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45.235576918599996</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>45.454106278599994</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>39.360655741399995</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>45.733333336599998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66AB-4379-BBED-60BDD232598C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>1秒</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'129_1000_5k_100k_5s_fsr'!$A$1:$A$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'129_1000_5k_100k_5s_fsr'!$G$1:$G$96</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="96"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.181818181818183</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24.074074074074073</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.076923076923077</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.212121212121211</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.172413793103448</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.142857142857146</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24.528301886792452</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.862068965517242</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25.961538461538463</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42.68292682926829</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>49.572649572649574</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.0909090909090917</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.3333333333333339</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34.090909090909086</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26.168224299065422</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.7586206896551726</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40.54054054054054</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>31.210191082802545</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>29.530201342281881</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.867132867132867</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.492822966507177</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36.84210526315789</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36.477987421383645</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.031847133757964</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33.823529411764703</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>31.932773109243701</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30.841121495327101</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31.481481481481481</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33.027522935779814</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>34.234234234234236</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27.184466019417481</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>17.1875</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>8.8888888888888893</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>12.195121951219514</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26.470588235294112</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>35.849056603773583</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>26.315789473684209</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13.20754716981132</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>27.027027027027028</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>33.684210526315795</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>32.530120481927717</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>19.642857142857142</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>24.21875</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>25.78125</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>26.923076923076923</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>27.536231884057973</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>27.69230769230769</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>24.137931034482762</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>34.146341463414629</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>33.84615384615384</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>33.793103448275865</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>34.482758620689658</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>33.333333333333329</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>32.374100719424462</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>27.972027972027973</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>27.941176470588236</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>29.230769230769234</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>29.285714285714288</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>34.285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>34.558823529411761</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>29.230769230769234</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>29.914529914529915</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>34.959349593495936</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>32.089552238805972</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>31.967213114754102</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>32.110091743119263</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>32.539682539682538</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>31.2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>29.078014184397162</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>31.35593220338983</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>33.962264150943398</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>35.555555555555557</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>39.473684210526315</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>40.579710144927546</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>38.235294117647058</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D333-4BCE-A369-AAFF27977A66}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="717079824"/>
+        <c:axId val="717083104"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="717079824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>周波数</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>(Hz)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="in"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717083104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="717083104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>最適動作度</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="717079824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7984444444444444"/>
+          <c:y val="0.56076334208223977"/>
+          <c:w val="0.14174402250351617"/>
+          <c:h val="0.15625109361329836"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -4884,16 +6497,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>385762</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>195262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>157162</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>233362</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4920,23 +6533,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>195262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="グラフ 3">
+        <xdr:cNvPr id="6" name="グラフ 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12F354E0-985D-40FF-9E1D-5B3E6476EEBF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2988A83C-D6C4-4CBE-99AF-A592615A94AD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4956,23 +6569,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>204787</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="グラフ 5">
+        <xdr:cNvPr id="2" name="グラフ 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2988A83C-D6C4-4CBE-99AF-A592615A94AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE10F19-8B27-4102-9282-989DC833DDE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5289,16 +6902,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="F96" sqref="F1:F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>5</v>
       </c>
@@ -5314,8 +6927,15 @@
       <c r="E1">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F1">
+        <f>E1*C1</f>
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>6</v>
       </c>
@@ -5331,8 +6951,15 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F2">
+        <f t="shared" ref="F2:F65" si="0">E2*C2</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>7</v>
       </c>
@@ -5348,8 +6975,15 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>8</v>
       </c>
@@ -5365,8 +6999,15 @@
       <c r="E4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>9</v>
       </c>
@@ -5382,8 +7023,15 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>10</v>
       </c>
@@ -5399,8 +7047,15 @@
       <c r="E6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>18.181818181818183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>11</v>
       </c>
@@ -5416,8 +7071,15 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>12</v>
       </c>
@@ -5433,8 +7095,15 @@
       <c r="E8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>24.074074074074073</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>13</v>
       </c>
@@ -5450,8 +7119,15 @@
       <c r="E9">
         <v>20.454545450000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>1.8409090905000001</v>
+      </c>
+      <c r="G9">
+        <v>23.076923076923077</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>14</v>
       </c>
@@ -5467,8 +7143,15 @@
       <c r="E10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>15</v>
       </c>
@@ -5484,8 +7167,15 @@
       <c r="E11">
         <v>8.8235294119999992</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.26470588235999998</v>
+      </c>
+      <c r="G11">
+        <v>21.212121212121211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>16</v>
       </c>
@@ -5501,8 +7191,15 @@
       <c r="E12">
         <v>13.953488370000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.83720930220000001</v>
+      </c>
+      <c r="G12">
+        <v>30.172413793103448</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>17</v>
       </c>
@@ -5518,8 +7215,15 @@
       <c r="E13">
         <v>36.263736260000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>11.967032965800001</v>
+      </c>
+      <c r="G13">
+        <v>32.142857142857146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>18</v>
       </c>
@@ -5535,8 +7239,15 @@
       <c r="E14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>19</v>
       </c>
@@ -5552,8 +7263,15 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>20</v>
       </c>
@@ -5569,8 +7287,15 @@
       <c r="E16">
         <v>11.11111111</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.44444444439999997</v>
+      </c>
+      <c r="G16">
+        <v>24.528301886792452</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>21</v>
       </c>
@@ -5586,8 +7311,15 @@
       <c r="E17">
         <v>17.30769231</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>1.5576923079</v>
+      </c>
+      <c r="G17">
+        <v>25.862068965517242</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>22</v>
       </c>
@@ -5603,8 +7335,15 @@
       <c r="E18">
         <v>25.287356320000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>5.5632183904000003</v>
+      </c>
+      <c r="G18">
+        <v>25.961538461538463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>23</v>
       </c>
@@ -5620,8 +7359,15 @@
       <c r="E19">
         <v>45.806451610000003</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>32.5225806431</v>
+      </c>
+      <c r="G19">
+        <v>42.68292682926829</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>24</v>
       </c>
@@ -5637,8 +7383,15 @@
       <c r="E20">
         <v>43.956043960000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>17.582417584000002</v>
+      </c>
+      <c r="G20">
+        <v>49.572649572649574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>25</v>
       </c>
@@ -5654,8 +7407,15 @@
       <c r="E21">
         <v>43.689320389999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>19.660194175499999</v>
+      </c>
+      <c r="G21">
+        <v>42.400000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>26</v>
       </c>
@@ -5671,8 +7431,15 @@
       <c r="E22">
         <v>16.666666670000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.83333333350000016</v>
+      </c>
+      <c r="G22">
+        <v>9.0909090909090917</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>27</v>
       </c>
@@ -5688,8 +7455,15 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>28</v>
       </c>
@@ -5705,8 +7479,15 @@
       <c r="E24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>29</v>
       </c>
@@ -5722,8 +7503,15 @@
       <c r="E25">
         <v>13.043478260000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.39130434780000001</v>
+      </c>
+      <c r="G25">
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>30</v>
       </c>
@@ -5739,8 +7527,15 @@
       <c r="E26">
         <v>18.60465116</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>1.4883720927999999</v>
+      </c>
+      <c r="G26">
+        <v>34.090909090909086</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>31</v>
       </c>
@@ -5756,8 +7551,15 @@
       <c r="E27">
         <v>23.529411759999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>3.7647058815999999</v>
+      </c>
+      <c r="G27">
+        <v>26.168224299065422</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>32</v>
       </c>
@@ -5773,8 +7575,15 @@
       <c r="E28">
         <v>24.444444440000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>5.3777777768000004</v>
+      </c>
+      <c r="G28">
+        <v>7.7586206896551726</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>33</v>
       </c>
@@ -5790,8 +7599,15 @@
       <c r="E29">
         <v>25.373134329999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>8.626865672200001</v>
+      </c>
+      <c r="G29">
+        <v>40.54054054054054</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>34</v>
       </c>
@@ -5807,8 +7623,15 @@
       <c r="E30">
         <v>36.111111110000003</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>18.777777777200001</v>
+      </c>
+      <c r="G30">
+        <v>31.210191082802545</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>35</v>
       </c>
@@ -5824,8 +7647,15 @@
       <c r="E31">
         <v>28.467153280000002</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>11.102189779200001</v>
+      </c>
+      <c r="G31">
+        <v>29.530201342281881</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>36</v>
       </c>
@@ -5841,8 +7671,15 @@
       <c r="E32">
         <v>36.25</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>21.024999999999999</v>
+      </c>
+      <c r="G32">
+        <v>32.867132867132867</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>37</v>
       </c>
@@ -5858,8 +7695,15 @@
       <c r="E33">
         <v>40.223463690000003</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>28.960893856800002</v>
+      </c>
+      <c r="G33">
+        <v>33.492822966507177</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>38</v>
       </c>
@@ -5875,8 +7719,15 @@
       <c r="E34">
         <v>37.810945269999998</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>28.736318405199999</v>
+      </c>
+      <c r="G34">
+        <v>36.84210526315789</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>39</v>
       </c>
@@ -5892,8 +7743,15 @@
       <c r="E35">
         <v>48.872180450000002</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>31.766917292500004</v>
+      </c>
+      <c r="G35">
+        <v>36.477987421383645</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>40</v>
       </c>
@@ -5909,8 +7767,15 @@
       <c r="E36">
         <v>39.344262299999997</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>18.885245903999998</v>
+      </c>
+      <c r="G36">
+        <v>35.031847133757964</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>41</v>
       </c>
@@ -5926,8 +7791,15 @@
       <c r="E37">
         <v>30.701754390000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>10.745614036499999</v>
+      </c>
+      <c r="G37">
+        <v>33.823529411764703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>42</v>
       </c>
@@ -5943,8 +7815,15 @@
       <c r="E38">
         <v>27.88461538</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>8.0865384601999999</v>
+      </c>
+      <c r="G38">
+        <v>31.932773109243701</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>43</v>
       </c>
@@ -5960,8 +7839,15 @@
       <c r="E39">
         <v>30.701754390000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>10.745614036499999</v>
+      </c>
+      <c r="G39">
+        <v>30.841121495327101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>44</v>
       </c>
@@ -5977,8 +7863,15 @@
       <c r="E40">
         <v>53.84615385</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>18.846153847499998</v>
+      </c>
+      <c r="G40">
+        <v>31.481481481481481</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>45</v>
       </c>
@@ -5994,8 +7887,15 @@
       <c r="E41">
         <v>35.616438359999997</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>9.2602739735999986</v>
+      </c>
+      <c r="G41">
+        <v>33.027522935779814</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>46</v>
       </c>
@@ -6011,8 +7911,15 @@
       <c r="E42">
         <v>30.701754390000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>10.745614036499999</v>
+      </c>
+      <c r="G42">
+        <v>34.234234234234236</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>47</v>
       </c>
@@ -6028,8 +7935,15 @@
       <c r="E43">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>10.24</v>
+      </c>
+      <c r="G43">
+        <v>27.184466019417481</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>48</v>
       </c>
@@ -6045,8 +7959,15 @@
       <c r="E44">
         <v>44.086021510000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>18.0752688191</v>
+      </c>
+      <c r="G44">
+        <v>17.1875</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>49</v>
       </c>
@@ -6062,8 +7983,15 @@
       <c r="E45">
         <v>32.857142860000003</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>7.5571428578000015</v>
+      </c>
+      <c r="G45">
+        <v>8.8888888888888893</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>50</v>
       </c>
@@ -6079,8 +8007,15 @@
       <c r="E46">
         <v>17.948717949999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>1.2564102564999999</v>
+      </c>
+      <c r="G46">
+        <v>12.195121951219514</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>51</v>
       </c>
@@ -6096,8 +8031,15 @@
       <c r="E47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>52</v>
       </c>
@@ -6113,8 +8055,15 @@
       <c r="E48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>53</v>
       </c>
@@ -6130,8 +8079,15 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>54</v>
       </c>
@@ -6147,8 +8103,15 @@
       <c r="E50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>55</v>
       </c>
@@ -6164,8 +8127,15 @@
       <c r="E51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>56</v>
       </c>
@@ -6181,8 +8151,15 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>57</v>
       </c>
@@ -6198,8 +8175,15 @@
       <c r="E53">
         <v>20.833333329999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>1.0416666665000001</v>
+      </c>
+      <c r="G53">
+        <v>4.166666666666667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>58</v>
       </c>
@@ -6215,8 +8199,15 @@
       <c r="E54">
         <v>21.05263158</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>1.6842105264</v>
+      </c>
+      <c r="G54">
+        <v>26.470588235294112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>59</v>
       </c>
@@ -6232,8 +8223,15 @@
       <c r="E55">
         <v>29.787234040000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>4.1702127656000005</v>
+      </c>
+      <c r="G55">
+        <v>35.849056603773583</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>60</v>
       </c>
@@ -6249,8 +8247,15 @@
       <c r="E56">
         <v>30</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>3.5999999999999996</v>
+      </c>
+      <c r="G56">
+        <v>26.315789473684209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>61</v>
       </c>
@@ -6266,8 +8271,15 @@
       <c r="E57">
         <v>26.086956520000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>3.1304347824000001</v>
+      </c>
+      <c r="G57">
+        <v>13.20754716981132</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>62</v>
       </c>
@@ -6283,8 +8295,15 @@
       <c r="E58">
         <v>22.222222219999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>2.6666666663999998</v>
+      </c>
+      <c r="G58">
+        <v>27.027027027027028</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>63</v>
       </c>
@@ -6300,8 +8319,15 @@
       <c r="E59">
         <v>16.666666670000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>1.1666666669000003</v>
+      </c>
+      <c r="G59">
+        <v>33.684210526315795</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>64</v>
       </c>
@@ -6317,8 +8343,15 @@
       <c r="E60">
         <v>27.272727270000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>4.9090909085999996</v>
+      </c>
+      <c r="G60">
+        <v>32.530120481927717</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>65</v>
       </c>
@@ -6334,8 +8367,15 @@
       <c r="E61">
         <v>23.07692308</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>3.461538462</v>
+      </c>
+      <c r="G61">
+        <v>19.642857142857142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>66</v>
       </c>
@@ -6351,8 +8391,15 @@
       <c r="E62">
         <v>24.657534250000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>4.4383561650000001</v>
+      </c>
+      <c r="G62">
+        <v>24.21875</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>67</v>
       </c>
@@ -6368,8 +8415,15 @@
       <c r="E63">
         <v>19.753086419999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>3.1604938271999998</v>
+      </c>
+      <c r="G63">
+        <v>25.78125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>68</v>
       </c>
@@ -6385,8 +8439,15 @@
       <c r="E64">
         <v>18.918918919999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>2.6486486488000001</v>
+      </c>
+      <c r="G64">
+        <v>26.923076923076923</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>69</v>
       </c>
@@ -6402,8 +8463,15 @@
       <c r="E65">
         <v>17.045454549999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>2.5568181824999998</v>
+      </c>
+      <c r="G65">
+        <v>27.536231884057973</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>70</v>
       </c>
@@ -6419,8 +8487,15 @@
       <c r="E66">
         <v>18.627450979999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F66">
+        <f t="shared" ref="F66:F96" si="1">E66*C66</f>
+        <v>3.5392156861999999</v>
+      </c>
+      <c r="G66">
+        <v>27.69230769230769</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>71</v>
       </c>
@@ -6436,8 +8511,15 @@
       <c r="E67">
         <v>25.714285709999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F67">
+        <f t="shared" si="1"/>
+        <v>6.9428571417000002</v>
+      </c>
+      <c r="G67">
+        <v>24.137931034482762</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>72</v>
       </c>
@@ -6453,8 +8535,15 @@
       <c r="E68">
         <v>28</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>9.7999999999999989</v>
+      </c>
+      <c r="G68">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>73</v>
       </c>
@@ -6470,8 +8559,15 @@
       <c r="E69">
         <v>34.146341460000002</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>14.3414634132</v>
+      </c>
+      <c r="G69">
+        <v>34.146341463414629</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>74</v>
       </c>
@@ -6487,8 +8583,15 @@
       <c r="E70">
         <v>33.561643840000002</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>16.445205481600002</v>
+      </c>
+      <c r="G70">
+        <v>33.84615384615384</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>75</v>
       </c>
@@ -6504,8 +8607,15 @@
       <c r="E71">
         <v>35.714285709999999</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>19.642857140500002</v>
+      </c>
+      <c r="G71">
+        <v>33.793103448275865</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>76</v>
       </c>
@@ -6521,8 +8631,15 @@
       <c r="E72">
         <v>37.95180723</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>23.909638554899999</v>
+      </c>
+      <c r="G72">
+        <v>34.482758620689658</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>77</v>
       </c>
@@ -6538,8 +8655,15 @@
       <c r="E73">
         <v>38.25136612</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>26.775956283999999</v>
+      </c>
+      <c r="G73">
+        <v>33.333333333333329</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>78</v>
       </c>
@@ -6555,8 +8679,15 @@
       <c r="E74">
         <v>38.46153846</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>28.846153845</v>
+      </c>
+      <c r="G74">
+        <v>32.374100719424462</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>79</v>
       </c>
@@ -6572,8 +8703,15 @@
       <c r="E75">
         <v>38.38383838</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>29.171717168800001</v>
+      </c>
+      <c r="G75">
+        <v>27.972027972027973</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>80</v>
       </c>
@@ -6589,8 +8727,15 @@
       <c r="E76">
         <v>40.837696340000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>31.853403145200001</v>
+      </c>
+      <c r="G76">
+        <v>27.941176470588236</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>81</v>
       </c>
@@ -6606,8 +8751,15 @@
       <c r="E77">
         <v>40.932642489999999</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>32.336787567100004</v>
+      </c>
+      <c r="G77">
+        <v>29.230769230769234</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>82</v>
       </c>
@@ -6623,8 +8775,15 @@
       <c r="E78">
         <v>36.866359449999997</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>29.493087559999999</v>
+      </c>
+      <c r="G78">
+        <v>29.285714285714288</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>83</v>
       </c>
@@ -6640,8 +8799,15 @@
       <c r="E79">
         <v>40.796019899999997</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>33.452736317999992</v>
+      </c>
+      <c r="G79">
+        <v>34.285714285714285</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>84</v>
       </c>
@@ -6657,8 +8823,15 @@
       <c r="E80">
         <v>36.244541480000002</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>30.082969428400002</v>
+      </c>
+      <c r="G80">
+        <v>34.558823529411761</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>85</v>
       </c>
@@ -6674,8 +8847,15 @@
       <c r="E81">
         <v>38.356164380000003</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>32.219178079199999</v>
+      </c>
+      <c r="G81">
+        <v>29.230769230769234</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>86</v>
       </c>
@@ -6691,8 +8871,15 @@
       <c r="E82">
         <v>39.534883720000003</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>33.604651162000003</v>
+      </c>
+      <c r="G82">
+        <v>29.914529914529915</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>87</v>
       </c>
@@ -6708,8 +8895,15 @@
       <c r="E83">
         <v>37.885462560000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>32.581497801600001</v>
+      </c>
+      <c r="G83">
+        <v>34.959349593495936</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>88</v>
       </c>
@@ -6725,8 +8919,15 @@
       <c r="E84">
         <v>39.366515839999998</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>34.248868780799995</v>
+      </c>
+      <c r="G84">
+        <v>32.089552238805972</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>89</v>
       </c>
@@ -6742,8 +8943,15 @@
       <c r="E85">
         <v>37.130801689999998</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>32.6751054872</v>
+      </c>
+      <c r="G85">
+        <v>31.967213114754102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>90</v>
       </c>
@@ -6759,8 +8967,15 @@
       <c r="E86">
         <v>36.666666669999998</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>32.266666669599999</v>
+      </c>
+      <c r="G86">
+        <v>32.110091743119263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>91</v>
       </c>
@@ -6776,8 +8991,15 @@
       <c r="E87">
         <v>36.885245900000001</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>33.196721310000001</v>
+      </c>
+      <c r="G87">
+        <v>32.539682539682538</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>92</v>
       </c>
@@ -6793,8 +9015,15 @@
       <c r="E88">
         <v>39.737991270000002</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>36.161572055700006</v>
+      </c>
+      <c r="G88">
+        <v>31.2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>93</v>
       </c>
@@ -6810,8 +9039,15 @@
       <c r="E89">
         <v>39.240506330000002</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>36.493670886900006</v>
+      </c>
+      <c r="G89">
+        <v>29.078014184397162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>94</v>
       </c>
@@ -6827,8 +9063,15 @@
       <c r="E90">
         <v>39.495798319999999</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>37.126050420799999</v>
+      </c>
+      <c r="G90">
+        <v>31.35593220338983</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>95</v>
       </c>
@@ -6844,8 +9087,15 @@
       <c r="E91">
         <v>44.600938970000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>42.370892021499998</v>
+      </c>
+      <c r="G91">
+        <v>33.962264150943398</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>96</v>
       </c>
@@ -6861,8 +9111,15 @@
       <c r="E92">
         <v>40.851063830000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>39.217021276799997</v>
+      </c>
+      <c r="G92">
+        <v>35.555555555555557</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>97</v>
       </c>
@@ -6878,8 +9135,15 @@
       <c r="E93">
         <v>46.63461538</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>45.235576918599996</v>
+      </c>
+      <c r="G93">
+        <v>39.473684210526315</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>98</v>
       </c>
@@ -6895,8 +9159,15 @@
       <c r="E94">
         <v>46.859903379999999</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>45.454106278599994</v>
+      </c>
+      <c r="G94">
+        <v>40.579710144927546</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>99</v>
       </c>
@@ -6912,8 +9183,15 @@
       <c r="E95">
         <v>40.163934429999998</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>39.360655741399995</v>
+      </c>
+      <c r="G95">
+        <v>38.235294117647058</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>100</v>
       </c>
@@ -6928,6 +9206,13 @@
       </c>
       <c r="E96">
         <v>46.666666669999998</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>45.733333336599998</v>
+      </c>
+      <c r="G96">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
